--- a/icvp/StructureDefinition-ICVPVaccineDetailsSD.xlsx
+++ b/icvp/StructureDefinition-ICVPVaccineDetailsSD.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:36:54+00:00</t>
+    <t>2025-10-17T14:28:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
